--- a/Final_Project_GM/03_단위업무정의서_1조_EIEIEI.xlsx
+++ b/Final_Project_GM/03_단위업무정의서_1조_EIEIEI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.23\공유폴더\수업자료\00_프로젝트\2_최종프로젝트\98. 1팀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Desktop\테스트\D.W.-class-file\Final_Project_GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,21 +17,21 @@
     <sheet name="단위업무정의목록" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">단위업무정의목록!$A$3:$N$137</definedName>
-    <definedName name="김민경">단위업무정의목록!$B$63:$B$78,단위업무정의목록!#REF!,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
-    <definedName name="김상재">단위업무정의목록!$B$95:$B$104,단위업무정의목록!$B$105:$B$114,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">단위업무정의목록!$A$3:$N$139</definedName>
+    <definedName name="김민경">단위업무정의목록!$B$65:$B$80,단위업무정의목록!#REF!,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
+    <definedName name="김상재">단위업무정의목록!$B$97:$B$106,단위업무정의목록!$B$107:$B$116,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="김성진">단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="송현준">단위업무정의목록!#REF!,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
-    <definedName name="신철헌">단위업무정의목록!$B$18:$B$32,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
+    <definedName name="신철헌">단위업무정의목록!$B$20:$B$34,단위업무정의목록!#REF!,단위업무정의목록!#REF!</definedName>
     <definedName name="이지현">단위업무정의목록!#REF!</definedName>
-    <definedName name="최동주">단위업무정의목록!$B$5:$B$13,단위업무정의목록!$B$33:$B$43,단위업무정의목록!$B$80:$B$82</definedName>
+    <definedName name="최동주">단위업무정의목록!$B$5:$B$13,단위업무정의목록!$B$35:$B$45,단위업무정의목록!$B$82:$B$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="314">
   <si>
     <t>1.0</t>
   </si>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>상단 헤더 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -298,14 +294,6 @@
   </si>
   <si>
     <t>좌측 상단 로고 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌상단 로고 고정 및 홈버튼 역할</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 프로필(정보), 알림 메시지</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +326,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>최하단 FOOTER 구현</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>API 를 사용하여 판메 시세 제공</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -355,10 +339,6 @@
   </si>
   <si>
     <t>알림 메시지 기록관리</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램 소개, 이용약관, 개인정보 처리방침</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -547,15 +527,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>COMMON01_IMPORMATION</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>최초화면(COMMON01_IMPORMATION)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON01_LOGIN</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -572,18 +544,6 @@
   </si>
   <si>
     <t>NAV_BAR 구성(NAV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEADER</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEADER 구성(HEADER)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON02_SIGN</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -1010,14 +970,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>박근모</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1203,6 +1155,72 @@
   </si>
   <si>
     <t>축산 관리 커뮤니티(LIVESTOCK_COMMUNITY)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON01_IMPORMATION</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON01_LOGIN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02_SIGN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER_LOCALE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 메시지</t>
+  </si>
+  <si>
+    <t>좌상단 로고 고정 및 프로젝트 이름</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER_ALARM</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER_PROFILE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 프로필(정보),  회원정보 수정, 로그아웃</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 정보</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 특보 및 질병 알림</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재위치, 주변 위치의 병원이나 의료센터 검색</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 프로필</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 소개</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV 최하단 구현</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1773,6 +1791,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1781,7 +1812,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2103,9 +2134,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,6 +2155,15 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,13 +2179,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2159,6 +2196,117 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2181,119 +2329,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3455,13 +3498,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3512,13 +3555,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3569,13 +3612,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3626,13 +3669,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3683,13 +3726,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3740,13 +3783,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3797,13 +3840,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3854,13 +3897,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3911,13 +3954,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3968,13 +4011,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4025,13 +4068,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4082,13 +4125,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4139,13 +4182,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4196,13 +4239,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4253,13 +4296,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>746759</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4310,13 +4353,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4367,13 +4410,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4424,13 +4467,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4481,13 +4524,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4538,13 +4581,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4595,13 +4638,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4652,13 +4695,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4709,13 +4752,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4766,13 +4809,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4823,13 +4866,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4880,13 +4923,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4937,13 +4980,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4994,13 +5037,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5051,13 +5094,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5108,13 +5151,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5165,13 +5208,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5222,13 +5265,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5279,13 +5322,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5336,13 +5379,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5393,13 +5436,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5450,13 +5493,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5507,13 +5550,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5564,13 +5607,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5621,13 +5664,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5678,13 +5721,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34092,12 +34135,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -34122,14 +34165,14 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="116"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -62133,10 +62176,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AB1002"/>
+  <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -62161,24 +62204,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="64" t="s">
         <v>61</v>
       </c>
@@ -62191,10 +62234,10 @@
       <c r="F2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="143">
+      <c r="G2" s="158">
         <v>45526</v>
       </c>
-      <c r="H2" s="144"/>
+      <c r="H2" s="159"/>
       <c r="I2" s="72" t="s">
         <v>30</v>
       </c>
@@ -62223,10 +62266,10 @@
       <c r="F3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="145"/>
+      <c r="H3" s="160"/>
       <c r="I3" s="76" t="s">
         <v>16</v>
       </c>
@@ -62234,10 +62277,10 @@
         <v>39</v>
       </c>
       <c r="K3" s="49"/>
-      <c r="L3" s="128" t="s">
+      <c r="L3" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="129"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="56"/>
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
@@ -62255,7 +62298,7 @@
     <row r="4" spans="1:28" ht="26.25" customHeight="1">
       <c r="A4" s="80"/>
       <c r="B4" s="80" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>71</v>
@@ -62264,22 +62307,22 @@
         <v>9</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
-      <c r="G4" s="135" t="s">
-        <v>236</v>
+      <c r="G4" s="152" t="s">
+        <v>226</v>
       </c>
-      <c r="H4" s="135"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="83"/>
       <c r="J4" s="82" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K4" s="49"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="168"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
@@ -62299,31 +62342,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>141</v>
+        <v>300</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="136" t="s">
-        <v>142</v>
+      <c r="E5" s="128" t="s">
+        <v>135</v>
       </c>
-      <c r="F5" s="139" t="s">
-        <v>268</v>
+      <c r="F5" s="140" t="s">
+        <v>256</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="135"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="83"/>
-      <c r="J5" s="120" t="s">
-        <v>270</v>
+      <c r="J5" s="162" t="s">
+        <v>258</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="129"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="168"/>
       <c r="N5" s="59"/>
       <c r="O5" s="60"/>
       <c r="P5" s="60"/>
@@ -62343,25 +62386,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="135" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="135"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="121"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="132"/>
+      <c r="M6" s="171"/>
       <c r="N6" s="52"/>
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
@@ -62381,20 +62424,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="135" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="135"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="121"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="44"/>
@@ -62419,20 +62462,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="135" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="135"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="121"/>
+      <c r="J8" s="163"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="40"/>
@@ -62457,20 +62500,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="135" t="s">
-        <v>186</v>
+      <c r="D9" s="124"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="152" t="s">
+        <v>176</v>
       </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="122"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="164"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="40"/>
@@ -62495,27 +62538,27 @@
         <v>7</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="134" t="s">
-        <v>143</v>
+      <c r="E10" s="172" t="s">
+        <v>136</v>
       </c>
-      <c r="F10" s="146" t="s">
-        <v>267</v>
+      <c r="F10" s="161" t="s">
+        <v>255</v>
       </c>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="135"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="112" t="s">
-        <v>271</v>
+      <c r="J10" s="111" t="s">
+        <v>259</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -62541,21 +62584,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="135" t="s">
+      <c r="D11" s="144"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="135"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="123" t="s">
-        <v>268</v>
+      <c r="J11" s="125" t="s">
+        <v>256</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -62581,20 +62624,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="135" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="135"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="124"/>
+      <c r="J12" s="126"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -62619,20 +62662,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="135" t="s">
+      <c r="D13" s="144"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="135"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="125"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -62655,7 +62698,7 @@
     <row r="14" spans="1:28" ht="66.75" customHeight="1">
       <c r="A14" s="80"/>
       <c r="B14" s="80" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>72</v>
@@ -62664,18 +62707,18 @@
         <v>73</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
-      <c r="F14" s="139" t="s">
-        <v>264</v>
+      <c r="F14" s="140" t="s">
+        <v>252</v>
       </c>
-      <c r="G14" s="135" t="s">
-        <v>76</v>
+      <c r="G14" s="152" t="s">
+        <v>75</v>
       </c>
-      <c r="H14" s="135"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="123" t="s">
-        <v>264</v>
+      <c r="J14" s="125" t="s">
+        <v>252</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -62699,24 +62742,24 @@
     <row r="15" spans="1:28" ht="66.75" customHeight="1">
       <c r="A15" s="80"/>
       <c r="B15" s="80" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>75</v>
+      <c r="E15" s="115" t="s">
+        <v>139</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>147</v>
+      <c r="F15" s="141"/>
+      <c r="G15" s="152" t="s">
+        <v>304</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="135"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="124"/>
+      <c r="J15" s="126"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -62739,24 +62782,24 @@
     <row r="16" spans="1:28" ht="66.75" customHeight="1">
       <c r="A16" s="80"/>
       <c r="B16" s="80" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>9</v>
+      <c r="D16" s="114" t="s">
+        <v>70</v>
       </c>
-      <c r="E16" s="86" t="s">
-        <v>149</v>
+      <c r="E16" s="80" t="s">
+        <v>302</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="135" t="s">
-        <v>78</v>
+      <c r="F16" s="141"/>
+      <c r="G16" s="173" t="s">
+        <v>310</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="124"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -62779,24 +62822,24 @@
     <row r="17" spans="1:28" ht="66.75" customHeight="1">
       <c r="A17" s="80"/>
       <c r="B17" s="80" t="s">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>9</v>
+      <c r="D17" s="114" t="s">
+        <v>70</v>
       </c>
-      <c r="E17" s="86" t="s">
-        <v>151</v>
+      <c r="E17" s="80" t="s">
+        <v>305</v>
       </c>
       <c r="F17" s="141"/>
-      <c r="G17" s="135" t="s">
-        <v>92</v>
+      <c r="G17" s="173" t="s">
+        <v>309</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="125"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -62816,33 +62859,27 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
     </row>
-    <row r="18" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A18" s="80">
-        <v>12</v>
+    <row r="18" spans="1:28" ht="66.75" customHeight="1">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80" t="s">
+        <v>306</v>
       </c>
-      <c r="B18" s="83" t="s">
-        <v>134</v>
+      <c r="C18" s="84" t="s">
+        <v>311</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="142" t="s">
-        <v>300</v>
+      <c r="E18" s="80" t="s">
+        <v>306</v>
       </c>
-      <c r="F18" s="146" t="s">
-        <v>264</v>
+      <c r="F18" s="141"/>
+      <c r="G18" s="152" t="s">
+        <v>307</v>
       </c>
-      <c r="G18" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="65" t="s">
-        <v>278</v>
-      </c>
+      <c r="H18" s="152"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="126"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -62862,27 +62899,27 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
     </row>
-    <row r="19" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A19" s="80">
-        <v>13</v>
+    <row r="19" spans="1:28" ht="66.75" customHeight="1">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80" t="s">
+        <v>83</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>135</v>
+      <c r="C19" s="84" t="s">
+        <v>313</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>187</v>
+      <c r="D19" s="85" t="s">
+        <v>9</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="135" t="s">
-        <v>188</v>
+      <c r="E19" s="86" t="s">
+        <v>141</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="152" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="152"/>
       <c r="I19" s="83"/>
-      <c r="J19" s="65" t="s">
-        <v>277</v>
-      </c>
+      <c r="J19" s="127"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -62904,24 +62941,30 @@
     </row>
     <row r="20" spans="1:28" ht="26.25" customHeight="1">
       <c r="A20" s="80">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>134</v>
+      <c r="B20" s="83" t="s">
+        <v>129</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="135" t="s">
-        <v>189</v>
+      <c r="D20" s="144" t="s">
+        <v>297</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110" t="s">
-        <v>279</v>
+      <c r="E20" s="145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="161" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="152"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="65" t="s">
+        <v>266</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -62942,26 +62985,26 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:28" ht="45.75" customHeight="1">
+    <row r="21" spans="1:28" ht="26.25" customHeight="1">
       <c r="A21" s="80">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="B21" s="109" t="s">
-        <v>190</v>
+      <c r="B21" s="83" t="s">
+        <v>130</v>
       </c>
-      <c r="C21" s="84" t="s">
-        <v>191</v>
+      <c r="C21" s="87" t="s">
+        <v>177</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="135" t="s">
-        <v>192</v>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="152" t="s">
+        <v>178</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110" t="s">
-        <v>272</v>
+      <c r="H21" s="152"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="65" t="s">
+        <v>265</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -62982,26 +63025,26 @@
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
     </row>
-    <row r="22" spans="1:28" ht="45.75" customHeight="1">
+    <row r="22" spans="1:28" ht="26.25" customHeight="1">
       <c r="A22" s="80">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="B22" s="109" t="s">
-        <v>190</v>
+      <c r="B22" s="108" t="s">
+        <v>129</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>225</v>
+      <c r="C22" s="87" t="s">
+        <v>79</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="135" t="s">
-        <v>226</v>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="152" t="s">
+        <v>179</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110" t="s">
-        <v>284</v>
+      <c r="H22" s="152"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109" t="s">
+        <v>267</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -63022,26 +63065,26 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
     </row>
-    <row r="23" spans="1:28" ht="26.25" customHeight="1">
+    <row r="23" spans="1:28" ht="45.75" customHeight="1">
       <c r="A23" s="80">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>136</v>
+      <c r="B23" s="108" t="s">
+        <v>180</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>194</v>
+      <c r="C23" s="84" t="s">
+        <v>181</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="135" t="s">
-        <v>305</v>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="152" t="s">
+        <v>182</v>
       </c>
-      <c r="H23" s="135"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="65" t="s">
-        <v>275</v>
+      <c r="H23" s="152"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109" t="s">
+        <v>260</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -63062,26 +63105,26 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
     </row>
-    <row r="24" spans="1:28" ht="26.25" customHeight="1">
+    <row r="24" spans="1:28" ht="45.75" customHeight="1">
       <c r="A24" s="80">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="B24" s="109" t="s">
-        <v>134</v>
+      <c r="B24" s="108" t="s">
+        <v>180</v>
       </c>
-      <c r="C24" s="87" t="s">
-        <v>195</v>
+      <c r="C24" s="84" t="s">
+        <v>215</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="135" t="s">
-        <v>196</v>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="152" t="s">
+        <v>216</v>
       </c>
-      <c r="H24" s="135"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110" t="s">
-        <v>276</v>
+      <c r="H24" s="152"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109" t="s">
+        <v>272</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -63106,22 +63149,22 @@
       <c r="A25" s="80">
         <v>15</v>
       </c>
-      <c r="B25" s="109" t="s">
-        <v>134</v>
+      <c r="B25" s="83" t="s">
+        <v>131</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="135" t="s">
-        <v>228</v>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="152" t="s">
+        <v>293</v>
       </c>
-      <c r="H25" s="135"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110" t="s">
-        <v>284</v>
+      <c r="H25" s="152"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="65" t="s">
+        <v>263</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -63144,24 +63187,24 @@
     </row>
     <row r="26" spans="1:28" ht="26.25" customHeight="1">
       <c r="A26" s="80">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="B26" s="83" t="s">
-        <v>136</v>
+      <c r="B26" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="135" t="s">
-        <v>274</v>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="152" t="s">
+        <v>186</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="65" t="s">
-        <v>273</v>
+      <c r="H26" s="152"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109" t="s">
+        <v>264</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -63183,23 +63226,25 @@
       <c r="AB26" s="18"/>
     </row>
     <row r="27" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="83" t="s">
-        <v>136</v>
+      <c r="A27" s="80">
+        <v>15</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="135" t="s">
-        <v>84</v>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="152" t="s">
+        <v>218</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="65" t="s">
-        <v>283</v>
+      <c r="H27" s="152"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="109" t="s">
+        <v>272</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -63221,23 +63266,25 @@
       <c r="AB27" s="18"/>
     </row>
     <row r="28" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="109" t="s">
-        <v>134</v>
+      <c r="A28" s="80">
+        <v>16</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>131</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="135" t="s">
-        <v>198</v>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="152" t="s">
+        <v>262</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110" t="s">
-        <v>270</v>
+      <c r="H28" s="152"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="65" t="s">
+        <v>261</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -63260,22 +63307,22 @@
     </row>
     <row r="29" spans="1:28" ht="26.25" customHeight="1">
       <c r="A29" s="80"/>
-      <c r="B29" s="109" t="s">
-        <v>134</v>
+      <c r="B29" s="83" t="s">
+        <v>131</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="135" t="s">
-        <v>200</v>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="152" t="s">
+        <v>81</v>
       </c>
-      <c r="H29" s="135"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110" t="s">
-        <v>282</v>
+      <c r="H29" s="152"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="65" t="s">
+        <v>271</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -63297,25 +63344,23 @@
       <c r="AB29" s="18"/>
     </row>
     <row r="30" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A30" s="80">
-        <v>17</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>136</v>
+      <c r="A30" s="80"/>
+      <c r="B30" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="135" t="s">
-        <v>89</v>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="152" t="s">
+        <v>188</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="111" t="s">
-        <v>275</v>
+      <c r="H30" s="152"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="109" t="s">
+        <v>258</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -63337,25 +63382,23 @@
       <c r="AB30" s="18"/>
     </row>
     <row r="31" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A31" s="80">
-        <v>17</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>136</v>
+      <c r="A31" s="80"/>
+      <c r="B31" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="135" t="s">
-        <v>91</v>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="152" t="s">
+        <v>190</v>
       </c>
-      <c r="H31" s="135"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="111" t="s">
-        <v>275</v>
+      <c r="H31" s="152"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="109" t="s">
+        <v>270</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -63377,23 +63420,25 @@
       <c r="AB31" s="18"/>
     </row>
     <row r="32" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A32" s="80"/>
+      <c r="A32" s="80">
+        <v>17</v>
+      </c>
       <c r="B32" s="83" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="135" t="s">
-        <v>88</v>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="152" t="s">
+        <v>85</v>
       </c>
-      <c r="H32" s="135"/>
+      <c r="H32" s="152"/>
       <c r="I32" s="83"/>
-      <c r="J32" s="65" t="s">
-        <v>280</v>
+      <c r="J32" s="110" t="s">
+        <v>263</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -63416,30 +63461,24 @@
     </row>
     <row r="33" spans="1:28" ht="26.25" customHeight="1">
       <c r="A33" s="80">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="B33" s="80" t="s">
-        <v>152</v>
+      <c r="B33" s="83" t="s">
+        <v>131</v>
       </c>
-      <c r="C33" s="84" t="s">
-        <v>33</v>
+      <c r="C33" s="87" t="s">
+        <v>86</v>
       </c>
-      <c r="D33" s="85" t="s">
-        <v>9</v>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="152" t="s">
+        <v>87</v>
       </c>
-      <c r="E33" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="123" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="H33" s="135"/>
+      <c r="H33" s="152"/>
       <c r="I33" s="83"/>
-      <c r="J33" s="123" t="s">
-        <v>281</v>
+      <c r="J33" s="110" t="s">
+        <v>263</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -63461,28 +63500,24 @@
       <c r="AB33" s="18"/>
     </row>
     <row r="34" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A34" s="80">
-        <v>21</v>
+      <c r="A34" s="80"/>
+      <c r="B34" s="83" t="s">
+        <v>131</v>
       </c>
-      <c r="B34" s="80" t="s">
-        <v>137</v>
+      <c r="C34" s="87" t="s">
+        <v>191</v>
       </c>
-      <c r="C34" s="84" t="s">
-        <v>233</v>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="152" t="s">
+        <v>84</v>
       </c>
-      <c r="D34" s="85" t="s">
-        <v>9</v>
+      <c r="H34" s="152"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="65" t="s">
+        <v>268</v>
       </c>
-      <c r="E34" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="124"/>
-      <c r="G34" s="135" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="135"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="124"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -63504,25 +63539,31 @@
     </row>
     <row r="35" spans="1:28" ht="26.25" customHeight="1">
       <c r="A35" s="80">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
-      <c r="D35" s="107" t="s">
-        <v>9</v>
+      <c r="D35" s="85" t="s">
+        <v>298</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="135" t="s">
-        <v>231</v>
+      <c r="E35" s="88" t="s">
+        <v>143</v>
       </c>
-      <c r="H35" s="135"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="124"/>
+      <c r="F35" s="125" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="152" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="152"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="125" t="s">
+        <v>269</v>
+      </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -63547,22 +63588,24 @@
         <v>21</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
-      <c r="D36" s="107" t="s">
-        <v>9</v>
+      <c r="D36" s="114" t="s">
+        <v>298</v>
       </c>
-      <c r="E36" s="138"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="135" t="s">
-        <v>232</v>
+      <c r="E36" s="128" t="s">
+        <v>144</v>
       </c>
-      <c r="H36" s="135"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="124"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="152"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="126"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -63587,24 +63630,22 @@
         <v>21</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
-      <c r="D37" s="107" t="s">
-        <v>9</v>
+      <c r="D37" s="114" t="s">
+        <v>298</v>
       </c>
-      <c r="E37" s="108" t="s">
-        <v>240</v>
+      <c r="E37" s="129"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="152" t="s">
+        <v>221</v>
       </c>
-      <c r="F37" s="125"/>
-      <c r="G37" s="135" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" s="135"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="125"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -63624,33 +63665,27 @@
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
     </row>
-    <row r="38" spans="1:28" ht="18.75">
+    <row r="38" spans="1:28" ht="26.25" customHeight="1">
       <c r="A38" s="80">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="B38" s="83" t="s">
-        <v>155</v>
+      <c r="B38" s="80" t="s">
+        <v>132</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
-      <c r="D38" s="162" t="s">
-        <v>260</v>
+      <c r="D38" s="114" t="s">
+        <v>298</v>
       </c>
-      <c r="E38" s="136" t="s">
-        <v>156</v>
+      <c r="E38" s="130"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="152" t="s">
+        <v>222</v>
       </c>
-      <c r="F38" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" s="149" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="77" t="s">
-        <v>287</v>
-      </c>
+      <c r="H38" s="152"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="126"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -63663,7 +63698,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
+      <c r="W38" s="21"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
@@ -63672,25 +63707,27 @@
     </row>
     <row r="39" spans="1:28" ht="26.25" customHeight="1">
       <c r="A39" s="80">
-        <v>24</v>
+        <v>21</v>
       </c>
-      <c r="B39" s="83" t="s">
-        <v>138</v>
+      <c r="B39" s="80" t="s">
+        <v>229</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
-      <c r="D39" s="163"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="150" t="s">
-        <v>209</v>
+      <c r="D39" s="114" t="s">
+        <v>298</v>
       </c>
-      <c r="H39" s="148"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="65" t="s">
-        <v>286</v>
+      <c r="E39" s="107" t="s">
+        <v>230</v>
       </c>
+      <c r="F39" s="127"/>
+      <c r="G39" s="152" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="152"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="127"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -63703,33 +63740,39 @@
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
+      <c r="W39" s="21"/>
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
     </row>
-    <row r="40" spans="1:28" ht="26.25" customHeight="1">
+    <row r="40" spans="1:28" ht="18.75">
       <c r="A40" s="80">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
-      <c r="D40" s="163"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="150" t="s">
-        <v>253</v>
+      <c r="D40" s="122" t="s">
+        <v>297</v>
       </c>
-      <c r="H40" s="148"/>
+      <c r="E40" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="136" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="131"/>
       <c r="I40" s="83"/>
-      <c r="J40" s="65" t="s">
-        <v>284</v>
+      <c r="J40" s="77" t="s">
+        <v>275</v>
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -63752,24 +63795,24 @@
     </row>
     <row r="41" spans="1:28" ht="26.25" customHeight="1">
       <c r="A41" s="80">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="B41" s="109" t="s">
-        <v>138</v>
+      <c r="B41" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
-      <c r="D41" s="163"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="150" t="s">
-        <v>255</v>
+      <c r="D41" s="123"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="134" t="s">
+        <v>199</v>
       </c>
-      <c r="H41" s="148"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="114" t="s">
-        <v>284</v>
+      <c r="H41" s="135"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="65" t="s">
+        <v>274</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -63794,22 +63837,22 @@
       <c r="A42" s="80">
         <v>25</v>
       </c>
-      <c r="B42" s="109" t="s">
-        <v>138</v>
+      <c r="B42" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>306</v>
+        <v>88</v>
       </c>
-      <c r="D42" s="163"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="165" t="s">
-        <v>256</v>
+      <c r="D42" s="123"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="134" t="s">
+        <v>243</v>
       </c>
-      <c r="H42" s="166"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="114" t="s">
-        <v>284</v>
+      <c r="H42" s="135"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="65" t="s">
+        <v>272</v>
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -63832,24 +63875,24 @@
     </row>
     <row r="43" spans="1:28" ht="26.25" customHeight="1">
       <c r="A43" s="80">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="B43" s="83" t="s">
-        <v>138</v>
+      <c r="B43" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="150" t="s">
-        <v>208</v>
+      <c r="D43" s="123"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="134" t="s">
+        <v>245</v>
       </c>
-      <c r="H43" s="148"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="114" t="s">
-        <v>288</v>
+      <c r="H43" s="135"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="113" t="s">
+        <v>272</v>
       </c>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
@@ -63872,24 +63915,24 @@
     </row>
     <row r="44" spans="1:28" ht="26.25" customHeight="1">
       <c r="A44" s="80">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="B44" s="109" t="s">
-        <v>138</v>
+      <c r="B44" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
-      <c r="D44" s="163"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="150" t="s">
-        <v>248</v>
+      <c r="D44" s="123"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="132" t="s">
+        <v>246</v>
       </c>
-      <c r="H44" s="148"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110" t="s">
-        <v>289</v>
+      <c r="H44" s="133"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="113" t="s">
+        <v>272</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -63914,22 +63957,22 @@
       <c r="A45" s="80">
         <v>26</v>
       </c>
-      <c r="B45" s="109" t="s">
-        <v>138</v>
+      <c r="B45" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
-      <c r="D45" s="163"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="150" t="s">
-        <v>249</v>
+      <c r="D45" s="123"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="134" t="s">
+        <v>198</v>
       </c>
-      <c r="H45" s="148"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="114" t="s">
-        <v>289</v>
+      <c r="H45" s="135"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="113" t="s">
+        <v>276</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -63950,104 +63993,106 @@
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
     </row>
-    <row r="46" spans="1:28" s="113" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A46" s="80" t="s">
-        <v>193</v>
+    <row r="46" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A46" s="80">
+        <v>26</v>
       </c>
-      <c r="B46" s="109" t="s">
-        <v>138</v>
+      <c r="B46" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="149" t="s">
-        <v>123</v>
+      <c r="D46" s="123"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="134" t="s">
+        <v>238</v>
       </c>
-      <c r="H46" s="149"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="110" t="s">
-        <v>290</v>
+      <c r="H46" s="135"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="109" t="s">
+        <v>277</v>
       </c>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-    </row>
-    <row r="47" spans="1:28" s="113" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="109" t="s">
-        <v>138</v>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+    </row>
+    <row r="47" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A47" s="80">
+        <v>26</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
-      <c r="D47" s="163"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="165" t="s">
-        <v>252</v>
+      <c r="D47" s="123"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="134" t="s">
+        <v>239</v>
       </c>
-      <c r="H47" s="166"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110" t="s">
-        <v>291</v>
+      <c r="H47" s="135"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="113" t="s">
+        <v>277</v>
       </c>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-    </row>
-    <row r="48" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A48" s="80">
-        <v>27</v>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+    </row>
+    <row r="48" spans="1:28" s="112" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A48" s="80" t="s">
+        <v>183</v>
       </c>
-      <c r="B48" s="109" t="s">
-        <v>138</v>
+      <c r="B48" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
-      <c r="D48" s="163"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="149" t="s">
-        <v>242</v>
+      <c r="D48" s="123"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="131" t="s">
+        <v>118</v>
       </c>
-      <c r="H48" s="149"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="110" t="s">
-        <v>292</v>
+      <c r="H48" s="131"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="109" t="s">
+        <v>278</v>
       </c>
       <c r="K48" s="55"/>
       <c r="L48" s="55"/>
@@ -64068,26 +64113,24 @@
       <c r="AA48" s="55"/>
       <c r="AB48" s="55"/>
     </row>
-    <row r="49" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A49" s="80">
-        <v>27</v>
-      </c>
-      <c r="B49" s="109" t="s">
-        <v>138</v>
+    <row r="49" spans="1:28" s="112" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A49" s="80"/>
+      <c r="B49" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
-      <c r="D49" s="163"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="149" t="s">
-        <v>244</v>
+      <c r="D49" s="123"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="132" t="s">
+        <v>242</v>
       </c>
-      <c r="H49" s="149"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="114" t="s">
-        <v>292</v>
+      <c r="H49" s="133"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="109" t="s">
+        <v>279</v>
       </c>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
@@ -64109,23 +64152,25 @@
       <c r="AB49" s="55"/>
     </row>
     <row r="50" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A50" s="80"/>
-      <c r="B50" s="109" t="s">
-        <v>138</v>
+      <c r="A50" s="80">
+        <v>27</v>
+      </c>
+      <c r="B50" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
-      <c r="D50" s="163"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="165" t="s">
-        <v>246</v>
+      <c r="D50" s="123"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="131" t="s">
+        <v>232</v>
       </c>
-      <c r="H50" s="166"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="114" t="s">
-        <v>292</v>
+      <c r="H50" s="131"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="109" t="s">
+        <v>280</v>
       </c>
       <c r="K50" s="55"/>
       <c r="L50" s="55"/>
@@ -64146,26 +64191,26 @@
       <c r="AA50" s="55"/>
       <c r="AB50" s="55"/>
     </row>
-    <row r="51" spans="1:28" s="51" customFormat="1" ht="27" customHeight="1">
+    <row r="51" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
       <c r="A51" s="80">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="B51" s="83" t="s">
-        <v>138</v>
+      <c r="B51" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
-      <c r="D51" s="163"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="149" t="s">
-        <v>307</v>
+      <c r="D51" s="123"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="131" t="s">
+        <v>234</v>
       </c>
-      <c r="H51" s="149"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="65" t="s">
-        <v>293</v>
+      <c r="H51" s="131"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="113" t="s">
+        <v>280</v>
       </c>
       <c r="K51" s="55"/>
       <c r="L51" s="55"/>
@@ -64187,25 +64232,23 @@
       <c r="AB51" s="55"/>
     </row>
     <row r="52" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A52" s="80">
-        <v>29</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>138</v>
+      <c r="A52" s="80"/>
+      <c r="B52" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
-      <c r="D52" s="163"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="150" t="s">
-        <v>118</v>
+      <c r="D52" s="123"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="132" t="s">
+        <v>236</v>
       </c>
-      <c r="H52" s="148"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="65" t="s">
-        <v>262</v>
+      <c r="H52" s="133"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="113" t="s">
+        <v>280</v>
       </c>
       <c r="K52" s="55"/>
       <c r="L52" s="55"/>
@@ -64226,26 +64269,26 @@
       <c r="AA52" s="55"/>
       <c r="AB52" s="55"/>
     </row>
-    <row r="53" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
+    <row r="53" spans="1:28" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A53" s="80">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="B53" s="109" t="s">
-        <v>138</v>
+      <c r="B53" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
-      <c r="D53" s="163"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="150" t="s">
-        <v>203</v>
+      <c r="D53" s="123"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="131" t="s">
+        <v>295</v>
       </c>
-      <c r="H53" s="148"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="110" t="s">
-        <v>295</v>
+      <c r="H53" s="131"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="65" t="s">
+        <v>281</v>
       </c>
       <c r="K53" s="55"/>
       <c r="L53" s="55"/>
@@ -64270,22 +64313,22 @@
       <c r="A54" s="80">
         <v>29</v>
       </c>
-      <c r="B54" s="109" t="s">
-        <v>138</v>
+      <c r="B54" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
-      <c r="D54" s="163"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="150" t="s">
-        <v>205</v>
+      <c r="D54" s="123"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="134" t="s">
+        <v>113</v>
       </c>
-      <c r="H54" s="148"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="114" t="s">
-        <v>295</v>
+      <c r="H54" s="135"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="65" t="s">
+        <v>250</v>
       </c>
       <c r="K54" s="55"/>
       <c r="L54" s="55"/>
@@ -64310,22 +64353,22 @@
       <c r="A55" s="80">
         <v>29</v>
       </c>
-      <c r="B55" s="109" t="s">
-        <v>138</v>
+      <c r="B55" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="150" t="s">
-        <v>207</v>
+      <c r="D55" s="123"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="134" t="s">
+        <v>193</v>
       </c>
-      <c r="H55" s="148"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="114" t="s">
-        <v>295</v>
+      <c r="H55" s="135"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="109" t="s">
+        <v>283</v>
       </c>
       <c r="K55" s="55"/>
       <c r="L55" s="55"/>
@@ -64350,22 +64393,22 @@
       <c r="A56" s="80">
         <v>29</v>
       </c>
-      <c r="B56" s="109" t="s">
-        <v>138</v>
+      <c r="B56" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
-      <c r="D56" s="164"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="150" t="s">
-        <v>118</v>
+      <c r="D56" s="123"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="134" t="s">
+        <v>195</v>
       </c>
-      <c r="H56" s="148"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="110" t="s">
-        <v>285</v>
+      <c r="H56" s="135"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="113" t="s">
+        <v>283</v>
       </c>
       <c r="K56" s="55"/>
       <c r="L56" s="55"/>
@@ -64386,109 +64429,113 @@
       <c r="AA56" s="55"/>
       <c r="AB56" s="55"/>
     </row>
-    <row r="57" spans="1:28" ht="26.25" customHeight="1">
+    <row r="57" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
       <c r="A57" s="80">
+        <v>29</v>
+      </c>
+      <c r="B57" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="123"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="135"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+    </row>
+    <row r="58" spans="1:28" s="51" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A58" s="80">
+        <v>29</v>
+      </c>
+      <c r="B58" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="124"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="135"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="109" t="s">
+        <v>273</v>
+      </c>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+    </row>
+    <row r="59" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A59" s="80">
         <v>30</v>
       </c>
-      <c r="B57" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="162" t="s">
-        <v>261</v>
-      </c>
-      <c r="E57" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="139" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="148" t="s">
-        <v>224</v>
-      </c>
-      <c r="H57" s="149"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="139" t="s">
-        <v>294</v>
-      </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-    </row>
-    <row r="58" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A58" s="80">
-        <v>31</v>
-      </c>
-      <c r="B58" s="89" t="s">
+      <c r="B59" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="87" t="s">
-        <v>99</v>
+      <c r="C59" s="87" t="s">
+        <v>92</v>
       </c>
-      <c r="D58" s="163"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="148" t="s">
-        <v>223</v>
+      <c r="D59" s="122" t="s">
+        <v>297</v>
       </c>
-      <c r="H58" s="149"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-    </row>
-    <row r="59" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A59" s="80">
-        <v>32</v>
+      <c r="E59" s="145" t="s">
+        <v>172</v>
       </c>
-      <c r="B59" s="89" t="s">
-        <v>158</v>
+      <c r="F59" s="140" t="s">
+        <v>253</v>
       </c>
-      <c r="C59" s="87" t="s">
-        <v>100</v>
+      <c r="G59" s="135" t="s">
+        <v>214</v>
       </c>
-      <c r="D59" s="163"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="148" t="s">
-        <v>222</v>
+      <c r="H59" s="131"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="140" t="s">
+        <v>282</v>
       </c>
-      <c r="H59" s="149"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="140"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -64510,23 +64557,23 @@
     </row>
     <row r="60" spans="1:28" ht="26.25" customHeight="1">
       <c r="A60" s="80">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
-      <c r="D60" s="163"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="147" t="s">
-        <v>221</v>
+      <c r="D60" s="123"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="135" t="s">
+        <v>213</v>
       </c>
-      <c r="H60" s="148"/>
+      <c r="H60" s="131"/>
       <c r="I60" s="90"/>
-      <c r="J60" s="140"/>
+      <c r="J60" s="141"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -64534,11 +64581,11 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
       <c r="Y60" s="18"/>
@@ -64548,23 +64595,23 @@
     </row>
     <row r="61" spans="1:28" ht="26.25" customHeight="1">
       <c r="A61" s="80">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
-      <c r="D61" s="163"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="147" t="s">
-        <v>220</v>
+      <c r="D61" s="123"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="135" t="s">
+        <v>212</v>
       </c>
-      <c r="H61" s="148"/>
+      <c r="H61" s="131"/>
       <c r="I61" s="90"/>
-      <c r="J61" s="140"/>
+      <c r="J61" s="141"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -64586,23 +64633,23 @@
     </row>
     <row r="62" spans="1:28" ht="26.25" customHeight="1">
       <c r="A62" s="80">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
-      <c r="D62" s="163"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="147" t="s">
-        <v>219</v>
+      <c r="D62" s="123"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="157" t="s">
+        <v>211</v>
       </c>
-      <c r="H62" s="148"/>
+      <c r="H62" s="135"/>
       <c r="I62" s="90"/>
-      <c r="J62" s="140"/>
+      <c r="J62" s="141"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -64624,23 +64671,23 @@
     </row>
     <row r="63" spans="1:28" ht="26.25" customHeight="1">
       <c r="A63" s="80">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B63" s="89" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
-      <c r="D63" s="163"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="147" t="s">
-        <v>217</v>
+      <c r="D63" s="123"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="157" t="s">
+        <v>210</v>
       </c>
-      <c r="H63" s="148"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="140"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="141"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -64662,23 +64709,23 @@
     </row>
     <row r="64" spans="1:28" ht="26.25" customHeight="1">
       <c r="A64" s="80">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="89" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
-      <c r="D64" s="163"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="147" t="s">
-        <v>216</v>
+      <c r="D64" s="123"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="157" t="s">
+        <v>209</v>
       </c>
-      <c r="H64" s="148"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="140"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="141"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
@@ -64686,7 +64733,7 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="18"/>
-      <c r="R64" s="35"/>
+      <c r="R64" s="18"/>
       <c r="S64" s="18"/>
       <c r="T64" s="18"/>
       <c r="U64" s="18"/>
@@ -64700,31 +64747,31 @@
     </row>
     <row r="65" spans="1:28" ht="26.25" customHeight="1">
       <c r="A65" s="80">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
-      <c r="D65" s="163"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="147" t="s">
-        <v>215</v>
+      <c r="D65" s="123"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="157" t="s">
+        <v>207</v>
       </c>
-      <c r="H65" s="148"/>
+      <c r="H65" s="135"/>
       <c r="I65" s="83"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
+      <c r="J65" s="141"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
       <c r="P65" s="18"/>
       <c r="Q65" s="18"/>
-      <c r="R65" s="35"/>
+      <c r="R65" s="18"/>
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
@@ -64738,25 +64785,25 @@
     </row>
     <row r="66" spans="1:28" ht="26.25" customHeight="1">
       <c r="A66" s="80">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
-      <c r="D66" s="163"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="147" t="s">
-        <v>214</v>
+      <c r="D66" s="123"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="157" t="s">
+        <v>206</v>
       </c>
-      <c r="H66" s="148"/>
+      <c r="H66" s="135"/>
       <c r="I66" s="83"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -64776,23 +64823,23 @@
     </row>
     <row r="67" spans="1:28" ht="26.25" customHeight="1">
       <c r="A67" s="80">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="D67" s="163"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="147" t="s">
-        <v>54</v>
+      <c r="D67" s="123"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="157" t="s">
+        <v>205</v>
       </c>
-      <c r="H67" s="148"/>
+      <c r="H67" s="135"/>
       <c r="I67" s="83"/>
-      <c r="J67" s="140"/>
+      <c r="J67" s="141"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="18"/>
@@ -64814,23 +64861,23 @@
     </row>
     <row r="68" spans="1:28" ht="26.25" customHeight="1">
       <c r="A68" s="80">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B68" s="89" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C68" s="87" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
-      <c r="D68" s="164"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="147" t="s">
-        <v>213</v>
+      <c r="D68" s="123"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="157" t="s">
+        <v>204</v>
       </c>
-      <c r="H68" s="148"/>
+      <c r="H68" s="135"/>
       <c r="I68" s="83"/>
-      <c r="J68" s="140"/>
+      <c r="J68" s="141"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="18"/>
@@ -64838,41 +64885,37 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
     </row>
     <row r="69" spans="1:28" ht="26.25" customHeight="1">
       <c r="A69" s="80">
-        <v>43</v>
+        <v>41</v>
       </c>
-      <c r="B69" s="80" t="s">
-        <v>168</v>
+      <c r="B69" s="89" t="s">
+        <v>155</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
-      <c r="D69" s="162" t="s">
-        <v>261</v>
+      <c r="D69" s="123"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="157" t="s">
+        <v>54</v>
       </c>
-      <c r="E69" s="142" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" s="140"/>
-      <c r="G69" s="148" t="s">
-        <v>224</v>
-      </c>
-      <c r="H69" s="149"/>
+      <c r="H69" s="135"/>
       <c r="I69" s="83"/>
-      <c r="J69" s="140"/>
+      <c r="J69" s="141"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
       <c r="M69" s="18"/>
@@ -64880,39 +64923,39 @@
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="34"/>
-    </row>
-    <row r="70" spans="1:28" ht="28.5" customHeight="1">
+      <c r="R69" s="35"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="18"/>
+      <c r="AB69" s="18"/>
+    </row>
+    <row r="70" spans="1:28" ht="26.25" customHeight="1">
       <c r="A70" s="80">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="B70" s="80" t="s">
-        <v>169</v>
+      <c r="B70" s="89" t="s">
+        <v>156</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
-      <c r="D70" s="163"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="148" t="s">
-        <v>223</v>
+      <c r="D70" s="124"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="157" t="s">
+        <v>203</v>
       </c>
-      <c r="H70" s="149"/>
+      <c r="H70" s="135"/>
       <c r="I70" s="83"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
+      <c r="J70" s="141"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -64930,37 +64973,41 @@
       <c r="AA70" s="34"/>
       <c r="AB70" s="34"/>
     </row>
-    <row r="71" spans="1:28" ht="28.5" customHeight="1">
+    <row r="71" spans="1:28" ht="26.25" customHeight="1">
       <c r="A71" s="80">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
-      <c r="D71" s="163"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="148" t="s">
-        <v>222</v>
+      <c r="D71" s="122" t="s">
+        <v>297</v>
       </c>
-      <c r="H71" s="149"/>
+      <c r="E71" s="145" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" s="141"/>
+      <c r="G71" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="131"/>
       <c r="I71" s="83"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
+      <c r="J71" s="141"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
       <c r="W71" s="34"/>
       <c r="X71" s="34"/>
       <c r="Y71" s="34"/>
@@ -64970,23 +65017,23 @@
     </row>
     <row r="72" spans="1:28" ht="28.5" customHeight="1">
       <c r="A72" s="80">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C72" s="87" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
-      <c r="D72" s="163"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="147" t="s">
-        <v>221</v>
+      <c r="D72" s="123"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="135" t="s">
+        <v>213</v>
       </c>
-      <c r="H72" s="148"/>
+      <c r="H72" s="131"/>
       <c r="I72" s="83"/>
-      <c r="J72" s="140"/>
+      <c r="J72" s="141"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -64994,11 +65041,11 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
       <c r="W72" s="34"/>
       <c r="X72" s="34"/>
       <c r="Y72" s="34"/>
@@ -65008,23 +65055,23 @@
     </row>
     <row r="73" spans="1:28" ht="28.5" customHeight="1">
       <c r="A73" s="80">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B73" s="80" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
-      <c r="D73" s="163"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="147" t="s">
-        <v>220</v>
+      <c r="D73" s="123"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="135" t="s">
+        <v>212</v>
       </c>
-      <c r="H73" s="148"/>
+      <c r="H73" s="131"/>
       <c r="I73" s="83"/>
-      <c r="J73" s="140"/>
+      <c r="J73" s="141"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -65046,23 +65093,23 @@
     </row>
     <row r="74" spans="1:28" ht="28.5" customHeight="1">
       <c r="A74" s="80">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" s="80" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
-      <c r="D74" s="163"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="147" t="s">
-        <v>219</v>
+      <c r="D74" s="123"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="157" t="s">
+        <v>211</v>
       </c>
-      <c r="H74" s="148"/>
+      <c r="H74" s="135"/>
       <c r="I74" s="83"/>
-      <c r="J74" s="140"/>
+      <c r="J74" s="141"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -65082,25 +65129,25 @@
       <c r="AA74" s="34"/>
       <c r="AB74" s="34"/>
     </row>
-    <row r="75" spans="1:28" ht="26.25" customHeight="1">
+    <row r="75" spans="1:28" ht="28.5" customHeight="1">
       <c r="A75" s="80">
+        <v>47</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="80" t="s">
-        <v>173</v>
+      <c r="D75" s="123"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="157" t="s">
+        <v>210</v>
       </c>
-      <c r="C75" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="163"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="147" t="s">
-        <v>218</v>
-      </c>
-      <c r="H75" s="148"/>
+      <c r="H75" s="135"/>
       <c r="I75" s="83"/>
-      <c r="J75" s="140"/>
+      <c r="J75" s="141"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -65113,32 +65160,32 @@
       <c r="T75" s="18"/>
       <c r="U75" s="18"/>
       <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-    </row>
-    <row r="76" spans="1:28" ht="26.25" customHeight="1">
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+    </row>
+    <row r="76" spans="1:28" ht="28.5" customHeight="1">
       <c r="A76" s="80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C76" s="87" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
-      <c r="D76" s="163"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="147" t="s">
-        <v>217</v>
+      <c r="D76" s="123"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="141"/>
+      <c r="G76" s="157" t="s">
+        <v>209</v>
       </c>
-      <c r="H76" s="148"/>
+      <c r="H76" s="135"/>
       <c r="I76" s="83"/>
-      <c r="J76" s="140"/>
+      <c r="J76" s="141"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -65151,32 +65198,32 @@
       <c r="T76" s="18"/>
       <c r="U76" s="18"/>
       <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
     </row>
     <row r="77" spans="1:28" ht="26.25" customHeight="1">
       <c r="A77" s="80">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C77" s="87" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
-      <c r="D77" s="163"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="147" t="s">
-        <v>216</v>
+      <c r="D77" s="123"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="157" t="s">
+        <v>208</v>
       </c>
-      <c r="H77" s="148"/>
+      <c r="H77" s="135"/>
       <c r="I77" s="83"/>
-      <c r="J77" s="140"/>
+      <c r="J77" s="141"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
@@ -65198,23 +65245,23 @@
     </row>
     <row r="78" spans="1:28" ht="26.25" customHeight="1">
       <c r="A78" s="80">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="80" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C78" s="87" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
-      <c r="D78" s="163"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="147" t="s">
-        <v>215</v>
+      <c r="D78" s="123"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="157" t="s">
+        <v>207</v>
       </c>
-      <c r="H78" s="148"/>
+      <c r="H78" s="135"/>
       <c r="I78" s="83"/>
-      <c r="J78" s="140"/>
+      <c r="J78" s="141"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
@@ -65236,23 +65283,23 @@
     </row>
     <row r="79" spans="1:28" ht="26.25" customHeight="1">
       <c r="A79" s="80">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C79" s="87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
-      <c r="D79" s="163"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="147" t="s">
-        <v>214</v>
+      <c r="D79" s="123"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="157" t="s">
+        <v>206</v>
       </c>
-      <c r="H79" s="148"/>
+      <c r="H79" s="135"/>
       <c r="I79" s="83"/>
-      <c r="J79" s="140"/>
+      <c r="J79" s="141"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -65274,23 +65321,23 @@
     </row>
     <row r="80" spans="1:28" ht="26.25" customHeight="1">
       <c r="A80" s="80">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B80" s="80" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C80" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="D80" s="163"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="147" t="s">
-        <v>54</v>
+      <c r="D80" s="123"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="141"/>
+      <c r="G80" s="157" t="s">
+        <v>205</v>
       </c>
-      <c r="H80" s="148"/>
+      <c r="H80" s="135"/>
       <c r="I80" s="83"/>
-      <c r="J80" s="140"/>
+      <c r="J80" s="141"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -65312,21 +65359,21 @@
     </row>
     <row r="81" spans="1:28" ht="26.25" customHeight="1">
       <c r="A81" s="80">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C81" s="87" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
-      <c r="D81" s="164"/>
-      <c r="E81" s="142"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="145"/>
       <c r="F81" s="141"/>
-      <c r="G81" s="147" t="s">
-        <v>213</v>
+      <c r="G81" s="157" t="s">
+        <v>204</v>
       </c>
-      <c r="H81" s="148"/>
+      <c r="H81" s="135"/>
       <c r="I81" s="83"/>
       <c r="J81" s="141"/>
       <c r="K81" s="18"/>
@@ -65350,31 +65397,23 @@
     </row>
     <row r="82" spans="1:28" ht="26.25" customHeight="1">
       <c r="A82" s="80">
-        <v>56</v>
+        <v>54</v>
       </c>
-      <c r="B82" s="83" t="s">
-        <v>184</v>
+      <c r="B82" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C82" s="87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
-      <c r="D82" s="133" t="s">
-        <v>116</v>
+      <c r="D82" s="123"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="141"/>
+      <c r="G82" s="157" t="s">
+        <v>54</v>
       </c>
-      <c r="E82" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="F82" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="G82" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" s="149"/>
+      <c r="H82" s="135"/>
       <c r="I82" s="83"/>
-      <c r="J82" s="123" t="s">
-        <v>296</v>
-      </c>
+      <c r="J82" s="141"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
@@ -65396,23 +65435,23 @@
     </row>
     <row r="83" spans="1:28" ht="26.25" customHeight="1">
       <c r="A83" s="80">
-        <v>57</v>
+        <v>55</v>
       </c>
-      <c r="B83" s="83" t="s">
-        <v>184</v>
+      <c r="B83" s="80" t="s">
+        <v>169</v>
       </c>
-      <c r="C83" s="89" t="s">
-        <v>58</v>
+      <c r="C83" s="87" t="s">
+        <v>55</v>
       </c>
-      <c r="D83" s="133"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="160" t="s">
-        <v>58</v>
+      <c r="D83" s="124"/>
+      <c r="E83" s="145"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="157" t="s">
+        <v>203</v>
       </c>
-      <c r="H83" s="161"/>
+      <c r="H83" s="135"/>
       <c r="I83" s="83"/>
-      <c r="J83" s="124"/>
+      <c r="J83" s="142"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
@@ -65434,23 +65473,31 @@
     </row>
     <row r="84" spans="1:28" ht="26.25" customHeight="1">
       <c r="A84" s="80">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B84" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
-      <c r="C84" s="89" t="s">
-        <v>109</v>
+      <c r="C84" s="87" t="s">
+        <v>50</v>
       </c>
-      <c r="D84" s="133"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="148" t="s">
-        <v>120</v>
+      <c r="D84" s="144" t="s">
+        <v>111</v>
       </c>
-      <c r="H84" s="149"/>
+      <c r="E84" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" s="139" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="131"/>
       <c r="I84" s="83"/>
-      <c r="J84" s="124"/>
+      <c r="J84" s="125" t="s">
+        <v>284</v>
+      </c>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
@@ -65472,23 +65519,23 @@
     </row>
     <row r="85" spans="1:28" ht="26.25" customHeight="1">
       <c r="A85" s="80">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
-      <c r="C85" s="87" t="s">
-        <v>110</v>
+      <c r="C85" s="89" t="s">
+        <v>58</v>
       </c>
-      <c r="D85" s="133"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="170"/>
-      <c r="G85" s="148" t="s">
-        <v>121</v>
+      <c r="D85" s="144"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="153" t="s">
+        <v>58</v>
       </c>
-      <c r="H85" s="149"/>
+      <c r="H85" s="154"/>
       <c r="I85" s="83"/>
-      <c r="J85" s="125"/>
+      <c r="J85" s="126"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -65510,27 +65557,23 @@
     </row>
     <row r="86" spans="1:28" ht="26.25" customHeight="1">
       <c r="A86" s="80">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C86" s="89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
-      <c r="D86" s="133"/>
-      <c r="E86" s="142" t="s">
-        <v>59</v>
+      <c r="D86" s="144"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="135" t="s">
+        <v>115</v>
       </c>
-      <c r="F86" s="170"/>
-      <c r="G86" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="H86" s="155"/>
+      <c r="H86" s="131"/>
       <c r="I86" s="83"/>
-      <c r="J86" s="123" t="s">
-        <v>297</v>
-      </c>
+      <c r="J86" s="126"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -65552,23 +65595,23 @@
     </row>
     <row r="87" spans="1:28" ht="26.25" customHeight="1">
       <c r="A87" s="80">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B87" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C87" s="87" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
-      <c r="D87" s="133"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="170"/>
-      <c r="G87" s="153" t="s">
-        <v>51</v>
+      <c r="D87" s="144"/>
+      <c r="E87" s="145"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="135" t="s">
+        <v>116</v>
       </c>
-      <c r="H87" s="155"/>
+      <c r="H87" s="131"/>
       <c r="I87" s="83"/>
-      <c r="J87" s="125"/>
+      <c r="J87" s="127"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -65590,26 +65633,26 @@
     </row>
     <row r="88" spans="1:28" ht="26.25" customHeight="1">
       <c r="A88" s="80">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C88" s="89" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
-      <c r="D88" s="133"/>
-      <c r="E88" s="142" t="s">
-        <v>211</v>
+      <c r="D88" s="144"/>
+      <c r="E88" s="145" t="s">
+        <v>59</v>
       </c>
-      <c r="F88" s="170"/>
-      <c r="G88" s="152" t="s">
-        <v>125</v>
+      <c r="F88" s="139"/>
+      <c r="G88" s="147" t="s">
+        <v>119</v>
       </c>
-      <c r="H88" s="153"/>
+      <c r="H88" s="155"/>
       <c r="I88" s="83"/>
-      <c r="J88" s="123" t="s">
-        <v>298</v>
+      <c r="J88" s="125" t="s">
+        <v>285</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
@@ -65632,23 +65675,23 @@
     </row>
     <row r="89" spans="1:28" ht="26.25" customHeight="1">
       <c r="A89" s="80">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="B89" s="109" t="s">
-        <v>184</v>
+      <c r="B89" s="83" t="s">
+        <v>174</v>
       </c>
-      <c r="C89" s="89" t="s">
-        <v>238</v>
+      <c r="C89" s="87" t="s">
+        <v>49</v>
       </c>
-      <c r="D89" s="133"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="170"/>
-      <c r="G89" s="152" t="s">
-        <v>125</v>
+      <c r="D89" s="144"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="139"/>
+      <c r="G89" s="147" t="s">
+        <v>51</v>
       </c>
-      <c r="H89" s="153"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="124"/>
+      <c r="H89" s="155"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="127"/>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
@@ -65672,21 +65715,25 @@
       <c r="A90" s="80">
         <v>62</v>
       </c>
-      <c r="B90" s="109" t="s">
-        <v>184</v>
+      <c r="B90" s="83" t="s">
+        <v>174</v>
       </c>
       <c r="C90" s="89" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
-      <c r="D90" s="133"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="170"/>
-      <c r="G90" s="152" t="s">
-        <v>302</v>
+      <c r="D90" s="144"/>
+      <c r="E90" s="145" t="s">
+        <v>201</v>
       </c>
-      <c r="H90" s="154"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="124"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="H90" s="147"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="125" t="s">
+        <v>286</v>
+      </c>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
@@ -65710,21 +65757,21 @@
       <c r="A91" s="80">
         <v>62</v>
       </c>
-      <c r="B91" s="109" t="s">
-        <v>184</v>
+      <c r="B91" s="108" t="s">
+        <v>174</v>
       </c>
       <c r="C91" s="89" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
-      <c r="D91" s="133"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="170"/>
-      <c r="G91" s="152" t="s">
-        <v>212</v>
+      <c r="D91" s="144"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="139"/>
+      <c r="G91" s="146" t="s">
+        <v>120</v>
       </c>
-      <c r="H91" s="153"/>
-      <c r="I91" s="109"/>
-      <c r="J91" s="124"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="126"/>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
@@ -65746,23 +65793,23 @@
     </row>
     <row r="92" spans="1:28" ht="26.25" customHeight="1">
       <c r="A92" s="80">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="B92" s="83" t="s">
-        <v>184</v>
+      <c r="B92" s="108" t="s">
+        <v>174</v>
       </c>
       <c r="C92" s="89" t="s">
-        <v>113</v>
+        <v>227</v>
       </c>
-      <c r="D92" s="133"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="170"/>
-      <c r="G92" s="156" t="s">
-        <v>301</v>
+      <c r="D92" s="144"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="139"/>
+      <c r="G92" s="146" t="s">
+        <v>290</v>
       </c>
-      <c r="H92" s="157"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="125"/>
+      <c r="H92" s="156"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="126"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
@@ -65784,27 +65831,23 @@
     </row>
     <row r="93" spans="1:28" ht="26.25" customHeight="1">
       <c r="A93" s="80">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="B93" s="83" t="s">
-        <v>184</v>
+      <c r="B93" s="108" t="s">
+        <v>174</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
-      <c r="D93" s="133"/>
-      <c r="E93" s="88" t="s">
-        <v>117</v>
+      <c r="D93" s="144"/>
+      <c r="E93" s="145"/>
+      <c r="F93" s="139"/>
+      <c r="G93" s="146" t="s">
+        <v>202</v>
       </c>
-      <c r="F93" s="170"/>
-      <c r="G93" s="158" t="s">
-        <v>126</v>
-      </c>
-      <c r="H93" s="159"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="77" t="s">
-        <v>285</v>
-      </c>
+      <c r="H93" s="147"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="126"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
@@ -65826,27 +65869,23 @@
     </row>
     <row r="94" spans="1:28" ht="26.25" customHeight="1">
       <c r="A94" s="80">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C94" s="89" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
-      <c r="D94" s="133"/>
-      <c r="E94" s="88" t="s">
-        <v>60</v>
+      <c r="D94" s="144"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="139"/>
+      <c r="G94" s="148" t="s">
+        <v>289</v>
       </c>
-      <c r="F94" s="170"/>
-      <c r="G94" s="158" t="s">
-        <v>119</v>
-      </c>
-      <c r="H94" s="159"/>
+      <c r="H94" s="149"/>
       <c r="I94" s="83"/>
-      <c r="J94" s="77" t="s">
-        <v>299</v>
-      </c>
+      <c r="J94" s="127"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
@@ -65867,76 +65906,100 @@
       <c r="AB94" s="18"/>
     </row>
     <row r="95" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A95" s="80"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
+      <c r="A95" s="80">
+        <v>64</v>
+      </c>
+      <c r="B95" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="144"/>
+      <c r="E95" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="139"/>
+      <c r="G95" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" s="151"/>
       <c r="I95" s="83"/>
-      <c r="J95" s="78"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
+      <c r="J95" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
-      <c r="AB95" s="36"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="18"/>
     </row>
     <row r="96" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A96" s="80"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="151"/>
+      <c r="A96" s="80">
+        <v>65</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="144"/>
+      <c r="E96" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F96" s="139"/>
+      <c r="G96" s="150" t="s">
+        <v>114</v>
+      </c>
       <c r="H96" s="151"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="78"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+      <c r="Z96" s="18"/>
+      <c r="AA96" s="18"/>
+      <c r="AB96" s="18"/>
     </row>
     <row r="97" spans="1:28" ht="26.25" customHeight="1">
       <c r="A97" s="80"/>
       <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="85"/>
       <c r="E97" s="88"/>
       <c r="F97" s="79"/>
-      <c r="G97" s="151"/>
-      <c r="H97" s="151"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="77"/>
+      <c r="G97" s="152"/>
+      <c r="H97" s="152"/>
+      <c r="I97" s="83"/>
+      <c r="J97" s="78"/>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
       <c r="M97" s="18"/>
@@ -65959,14 +66022,14 @@
     <row r="98" spans="1:28" ht="26.25" customHeight="1">
       <c r="A98" s="80"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="85"/>
       <c r="E98" s="88"/>
       <c r="F98" s="79"/>
-      <c r="G98" s="151"/>
-      <c r="H98" s="151"/>
+      <c r="G98" s="143"/>
+      <c r="H98" s="143"/>
       <c r="I98" s="92"/>
-      <c r="J98" s="77"/>
+      <c r="J98" s="78"/>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
       <c r="M98" s="18"/>
@@ -65993,8 +66056,8 @@
       <c r="D99" s="85"/>
       <c r="E99" s="88"/>
       <c r="F99" s="79"/>
-      <c r="G99" s="151"/>
-      <c r="H99" s="151"/>
+      <c r="G99" s="143"/>
+      <c r="H99" s="143"/>
       <c r="I99" s="92"/>
       <c r="J99" s="77"/>
       <c r="K99" s="36"/>
@@ -66023,9 +66086,9 @@
       <c r="D100" s="85"/>
       <c r="E100" s="88"/>
       <c r="F100" s="79"/>
-      <c r="G100" s="151"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="83"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="143"/>
+      <c r="I100" s="92"/>
       <c r="J100" s="77"/>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
@@ -66053,9 +66116,9 @@
       <c r="D101" s="85"/>
       <c r="E101" s="88"/>
       <c r="F101" s="79"/>
-      <c r="G101" s="151"/>
-      <c r="H101" s="151"/>
-      <c r="I101" s="83"/>
+      <c r="G101" s="143"/>
+      <c r="H101" s="143"/>
+      <c r="I101" s="92"/>
       <c r="J101" s="77"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
@@ -66077,16 +66140,16 @@
       <c r="AB101" s="36"/>
     </row>
     <row r="102" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A102" s="93"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="95"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="97"/>
-      <c r="H102" s="98"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="63"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="143"/>
+      <c r="I102" s="83"/>
+      <c r="J102" s="77"/>
       <c r="K102" s="36"/>
       <c r="L102" s="36"/>
       <c r="M102" s="18"/>
@@ -66107,16 +66170,16 @@
       <c r="AB102" s="36"/>
     </row>
     <row r="103" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A103" s="100"/>
-      <c r="B103" s="101"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="104"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="53"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="143"/>
+      <c r="H103" s="143"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="77"/>
       <c r="K103" s="36"/>
       <c r="L103" s="36"/>
       <c r="M103" s="18"/>
@@ -66136,17 +66199,17 @@
       <c r="AA103" s="36"/>
       <c r="AB103" s="36"/>
     </row>
-    <row r="104" spans="1:28" ht="51" customHeight="1">
-      <c r="A104" s="100"/>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="106"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="53"/>
+    <row r="104" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A104" s="93"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="95"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="63"/>
       <c r="K104" s="36"/>
       <c r="L104" s="36"/>
       <c r="M104" s="18"/>
@@ -66196,17 +66259,17 @@
       <c r="AA105" s="36"/>
       <c r="AB105" s="36"/>
     </row>
-    <row r="106" spans="1:28" ht="26.25" customHeight="1">
+    <row r="106" spans="1:28" ht="51" customHeight="1">
       <c r="A106" s="100"/>
       <c r="B106" s="101"/>
       <c r="C106" s="101"/>
       <c r="D106" s="102"/>
       <c r="E106" s="103"/>
       <c r="F106" s="62"/>
-      <c r="G106" s="104"/>
+      <c r="G106" s="106"/>
       <c r="H106" s="104"/>
       <c r="I106" s="105"/>
-      <c r="J106" s="54"/>
+      <c r="J106" s="53"/>
       <c r="K106" s="36"/>
       <c r="L106" s="36"/>
       <c r="M106" s="18"/>
@@ -66263,10 +66326,10 @@
       <c r="D108" s="102"/>
       <c r="E108" s="103"/>
       <c r="F108" s="62"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
+      <c r="G108" s="104"/>
+      <c r="H108" s="104"/>
       <c r="I108" s="105"/>
-      <c r="J108" s="53"/>
+      <c r="J108" s="54"/>
       <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="18"/>
@@ -66297,18 +66360,18 @@
       <c r="H109" s="104"/>
       <c r="I109" s="105"/>
       <c r="J109" s="53"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
       <c r="W109" s="36"/>
       <c r="X109" s="36"/>
       <c r="Y109" s="36"/>
@@ -66323,28 +66386,28 @@
       <c r="D110" s="102"/>
       <c r="E110" s="103"/>
       <c r="F110" s="62"/>
-      <c r="G110" s="104"/>
-      <c r="H110" s="104"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="103"/>
       <c r="I110" s="105"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="18"/>
-      <c r="AA110" s="18"/>
-      <c r="AB110" s="18"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="36"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
     </row>
     <row r="111" spans="1:28" ht="26.25" customHeight="1">
       <c r="A111" s="100"/>
@@ -66369,12 +66432,12 @@
       <c r="T111" s="18"/>
       <c r="U111" s="18"/>
       <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="18"/>
-      <c r="AA111" s="18"/>
-      <c r="AB111" s="18"/>
+      <c r="W111" s="36"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="36"/>
+      <c r="AA111" s="36"/>
+      <c r="AB111" s="36"/>
     </row>
     <row r="112" spans="1:28" ht="26.25" customHeight="1">
       <c r="A112" s="100"/>
@@ -66386,12 +66449,19 @@
       <c r="G112" s="104"/>
       <c r="H112" s="104"/>
       <c r="I112" s="105"/>
-      <c r="J112" s="53"/>
+      <c r="J112" s="54"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
       <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="18"/>
+      <c r="U112" s="18"/>
+      <c r="V112" s="18"/>
       <c r="W112" s="18"/>
       <c r="X112" s="18"/>
       <c r="Y112" s="18"/>
@@ -66399,7 +66469,7 @@
       <c r="AA112" s="18"/>
       <c r="AB112" s="18"/>
     </row>
-    <row r="113" spans="1:10" ht="26.25" customHeight="1">
+    <row r="113" spans="1:28" ht="26.25" customHeight="1">
       <c r="A113" s="100"/>
       <c r="B113" s="101"/>
       <c r="C113" s="101"/>
@@ -66410,8 +66480,26 @@
       <c r="H113" s="104"/>
       <c r="I113" s="105"/>
       <c r="J113" s="53"/>
-    </row>
-    <row r="114" spans="1:10" ht="26.25" customHeight="1">
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="18"/>
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+      <c r="Z113" s="18"/>
+      <c r="AA113" s="18"/>
+      <c r="AB113" s="18"/>
+    </row>
+    <row r="114" spans="1:28" ht="26.25" customHeight="1">
       <c r="A114" s="100"/>
       <c r="B114" s="101"/>
       <c r="C114" s="101"/>
@@ -66422,47 +66510,76 @@
       <c r="H114" s="104"/>
       <c r="I114" s="105"/>
       <c r="J114" s="53"/>
-    </row>
-    <row r="115" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A115" s="48"/>
-    </row>
-    <row r="116" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A116" s="48"/>
-    </row>
-    <row r="117" spans="1:10" ht="45" customHeight="1">
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="W114" s="18"/>
+      <c r="X114" s="18"/>
+      <c r="Y114" s="18"/>
+      <c r="Z114" s="18"/>
+      <c r="AA114" s="18"/>
+      <c r="AB114" s="18"/>
+    </row>
+    <row r="115" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A115" s="100"/>
+      <c r="B115" s="101"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="103"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="104"/>
+      <c r="H115" s="104"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="53"/>
+    </row>
+    <row r="116" spans="1:28" ht="26.25" customHeight="1">
+      <c r="A116" s="100"/>
+      <c r="B116" s="101"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="103"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="104"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="53"/>
+    </row>
+    <row r="117" spans="1:28" ht="26.25" customHeight="1">
       <c r="A117" s="48"/>
     </row>
-    <row r="118" spans="1:10" ht="45" customHeight="1">
+    <row r="118" spans="1:28" ht="26.25" customHeight="1">
       <c r="A118" s="48"/>
     </row>
-    <row r="119" spans="1:10" ht="26.25" customHeight="1">
+    <row r="119" spans="1:28" ht="45" customHeight="1">
       <c r="A119" s="48"/>
     </row>
-    <row r="120" spans="1:10" ht="26.25" customHeight="1">
+    <row r="120" spans="1:28" ht="45" customHeight="1">
       <c r="A120" s="48"/>
     </row>
-    <row r="121" spans="1:10" ht="26.25" customHeight="1">
+    <row r="121" spans="1:28" ht="26.25" customHeight="1">
       <c r="A121" s="48"/>
     </row>
-    <row r="122" spans="1:10" ht="26.25" customHeight="1">
+    <row r="122" spans="1:28" ht="26.25" customHeight="1">
       <c r="A122" s="48"/>
     </row>
-    <row r="123" spans="1:10" ht="45" customHeight="1">
+    <row r="123" spans="1:28" ht="26.25" customHeight="1">
       <c r="A123" s="48"/>
     </row>
-    <row r="124" spans="1:10" ht="45" customHeight="1">
+    <row r="124" spans="1:28" ht="26.25" customHeight="1">
       <c r="A124" s="48"/>
     </row>
-    <row r="125" spans="1:10" ht="26.25" customHeight="1">
+    <row r="125" spans="1:28" ht="45" customHeight="1">
       <c r="A125" s="48"/>
     </row>
-    <row r="126" spans="1:10" ht="26.25" customHeight="1">
+    <row r="126" spans="1:28" ht="45" customHeight="1">
       <c r="A126" s="48"/>
     </row>
-    <row r="127" spans="1:10" ht="26.25" customHeight="1">
+    <row r="127" spans="1:28" ht="26.25" customHeight="1">
       <c r="A127" s="48"/>
     </row>
-    <row r="128" spans="1:10" ht="26.25" customHeight="1">
+    <row r="128" spans="1:28" ht="26.25" customHeight="1">
       <c r="A128" s="48"/>
     </row>
     <row r="129" spans="1:1" ht="26.25" customHeight="1">
@@ -66487,10 +66604,10 @@
       <c r="A135" s="48"/>
     </row>
     <row r="136" spans="1:1" ht="26.25" customHeight="1">
-      <c r="A136" s="37"/>
+      <c r="A136" s="48"/>
     </row>
     <row r="137" spans="1:1" ht="26.25" customHeight="1">
-      <c r="A137" s="37"/>
+      <c r="A137" s="48"/>
     </row>
     <row r="138" spans="1:1" ht="26.25" customHeight="1">
       <c r="A138" s="37"/>
@@ -69081,110 +69198,39 @@
     <row r="1000" spans="1:1" ht="26.25" customHeight="1">
       <c r="A1000" s="37"/>
     </row>
-    <row r="1001" spans="1:1" ht="26.25" customHeight="1"/>
-    <row r="1002" spans="1:1" ht="26.25" customHeight="1"/>
+    <row r="1001" spans="1:1" ht="26.25" customHeight="1">
+      <c r="A1001" s="37"/>
+    </row>
+    <row r="1002" spans="1:1" ht="26.25" customHeight="1">
+      <c r="A1002" s="37"/>
+    </row>
+    <row r="1003" spans="1:1" ht="26.25" customHeight="1"/>
+    <row r="1004" spans="1:1" ht="26.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="D38:D56"/>
-    <mergeCell ref="D57:D68"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="J82:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J92"/>
-    <mergeCell ref="E38:E56"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="F38:F56"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F82:F94"/>
-    <mergeCell ref="F57:F81"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D82:D94"/>
-    <mergeCell ref="E57:E68"/>
-    <mergeCell ref="E69:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="J57:J81"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
+  <mergeCells count="139">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L3:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E18:E32"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="E20:E34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G5:H5"/>
@@ -69194,34 +69240,113 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="F18:F32"/>
-    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F20:F34"/>
+    <mergeCell ref="F14:F19"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="J59:J83"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G82:H82"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L3:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="E59:E70"/>
+    <mergeCell ref="E71:E83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D40:D58"/>
+    <mergeCell ref="D59:D70"/>
+    <mergeCell ref="D71:D83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="E40:E58"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="F40:F58"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F84:F96"/>
+    <mergeCell ref="F59:F83"/>
+    <mergeCell ref="G86:H86"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
